--- a/adm_2_xls/TA_ADM.xlsx
+++ b/adm_2_xls/TA_ADM.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Clusters" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="99">
   <si>
     <t>mos-controllers-pub-tier</t>
   </si>
@@ -280,6 +280,51 @@
   </si>
   <si>
     <t>240.0.0.2</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>3260</t>
+  </si>
+  <si>
+    <t>8776</t>
+  </si>
+  <si>
+    <t>3306</t>
+  </si>
+  <si>
+    <t>443</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>5673</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>873</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>12531</t>
+  </si>
+  <si>
+    <t>22</t>
   </si>
 </sst>
 </file>
@@ -620,7 +665,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -927,12 +972,358 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AF32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:AF32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U1" t="s">
+        <v>61</v>
+      </c>
+      <c r="V1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W1" t="s">
+        <v>59</v>
+      </c>
+      <c r="X1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>74</v>
+      </c>
+      <c r="K11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="L12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="M13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="N14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="O15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>77</v>
+      </c>
+      <c r="P16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="R18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="S19" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="T20" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>63</v>
+      </c>
+      <c r="U21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="V22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="W23" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>61</v>
+      </c>
+      <c r="X24" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/adm_2_xls/TA_ADM.xlsx
+++ b/adm_2_xls/TA_ADM.xlsx
@@ -1,34 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27907"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryantischer/Documents/CiscoTetration/adm_2_xls/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Clusters" sheetId="1" r:id="rId1"/>
     <sheet name="Policys" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="99">
   <si>
     <t>mos-controllers-pub-tier</t>
   </si>
@@ -330,8 +317,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -368,11 +355,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -419,12 +401,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -451,15 +433,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -486,7 +467,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -662,18 +642,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" customWidth="1"/>
-    <col min="2" max="11" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="2" max="11" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -687,7 +667,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -698,7 +678,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -724,7 +704,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -732,7 +712,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -746,7 +726,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -757,7 +737,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -765,7 +745,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -794,7 +774,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -802,7 +782,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -810,7 +790,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -866,7 +846,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18">
       <c r="A12" t="s">
         <v>57</v>
       </c>
@@ -874,7 +854,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18">
       <c r="A13" t="s">
         <v>59</v>
       </c>
@@ -882,7 +862,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18">
       <c r="A14" t="s">
         <v>61</v>
       </c>
@@ -890,7 +870,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18">
       <c r="A15" t="s">
         <v>63</v>
       </c>
@@ -913,7 +893,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18">
       <c r="A16" t="s">
         <v>70</v>
       </c>
@@ -921,7 +901,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>72</v>
       </c>
@@ -929,7 +909,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>74</v>
       </c>
@@ -940,7 +920,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>77</v>
       </c>
@@ -954,7 +934,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>81</v>
       </c>
@@ -971,16 +951,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AF32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:AF32"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="2" max="11" width="8.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32">
       <c r="B1" t="s">
         <v>72</v>
       </c>
@@ -1075,7 +1057,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -1083,7 +1065,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -1091,7 +1073,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -1099,7 +1081,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32">
       <c r="A5" t="s">
         <v>81</v>
       </c>
@@ -1107,7 +1089,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32">
       <c r="A6" t="s">
         <v>74</v>
       </c>
@@ -1115,7 +1097,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1123,7 +1105,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1131,7 +1113,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1139,7 +1121,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32">
       <c r="A10" t="s">
         <v>59</v>
       </c>
@@ -1147,7 +1129,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32">
       <c r="A11" t="s">
         <v>74</v>
       </c>
@@ -1155,7 +1137,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:32">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -1163,7 +1145,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1171,7 +1153,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:32">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -1179,7 +1161,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1187,7 +1169,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32">
       <c r="A16" t="s">
         <v>77</v>
       </c>
@@ -1195,7 +1177,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:32">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -1203,7 +1185,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:32">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -1211,7 +1193,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:32">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -1219,7 +1201,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:32">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -1227,7 +1209,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:32">
       <c r="A21" t="s">
         <v>63</v>
       </c>
@@ -1235,7 +1217,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:32">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -1243,7 +1225,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:32">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -1251,7 +1233,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:32">
       <c r="A24" t="s">
         <v>61</v>
       </c>
@@ -1259,7 +1241,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:32">
       <c r="A25" t="s">
         <v>81</v>
       </c>
@@ -1267,7 +1249,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:32">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -1275,7 +1257,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:32">
       <c r="A27" t="s">
         <v>59</v>
       </c>
@@ -1283,7 +1265,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:32">
       <c r="A28" t="s">
         <v>70</v>
       </c>
@@ -1291,7 +1273,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:32">
       <c r="A29" t="s">
         <v>61</v>
       </c>
@@ -1299,7 +1281,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:32">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -1307,7 +1289,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:32">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -1315,7 +1297,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:32">
       <c r="A32" t="s">
         <v>74</v>
       </c>

--- a/adm_2_xls/TA_ADM.xlsx
+++ b/adm_2_xls/TA_ADM.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="106">
   <si>
     <t>mos-controllers-pub-tier</t>
   </si>
@@ -269,49 +269,70 @@
     <t>240.0.0.2</t>
   </si>
   <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>139</t>
-  </si>
-  <si>
-    <t>3260</t>
-  </si>
-  <si>
-    <t>8776</t>
-  </si>
-  <si>
-    <t>3306</t>
-  </si>
-  <si>
-    <t>443</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>5673</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>5000</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>873</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>12531</t>
-  </si>
-  <si>
-    <t>22</t>
+    <t>[123]</t>
+  </si>
+  <si>
+    <t>[139, 445, 3389, 5900]</t>
+  </si>
+  <si>
+    <t>[3260]</t>
+  </si>
+  <si>
+    <t>[8776, 9292, 9696, 35357]</t>
+  </si>
+  <si>
+    <t>[3306, 5000, 8080, 8775, 9191, 9292, 9696, 35357]</t>
+  </si>
+  <si>
+    <t>[443, 5640]</t>
+  </si>
+  <si>
+    <t>[80, 4567, 5000, 5673, 6080, 8000, 8003, 8080, 8774, 9191, 9292, 9494, 9696, 11211, 35357, 41055, 49000, 5405]</t>
+  </si>
+  <si>
+    <t>[80]</t>
+  </si>
+  <si>
+    <t>[5673, 11211]</t>
+  </si>
+  <si>
+    <t>[0]</t>
+  </si>
+  <si>
+    <t>[5000, 8774, 8776, 9292, 9696]</t>
+  </si>
+  <si>
+    <t>[53]</t>
+  </si>
+  <si>
+    <t>[873, 6000]</t>
+  </si>
+  <si>
+    <t>[5673]</t>
+  </si>
+  <si>
+    <t>[1, 53, 111, 135, 137, 500, 2282, 3279, 4672, 5641, 6942, 10976, 11174, 14466, 15548, 16758, 17364, 32693, 35102, 44832, 47991, 49122, 50836, 52735, 62062, 12531, 0]</t>
+  </si>
+  <si>
+    <t>[123, 514, 8443, 61613]</t>
+  </si>
+  <si>
+    <t>[0, 1, 53, 111, 135, 137, 500, 2990, 5619, 7667, 9530, 10794, 11704, 17405, 19312, 19862, 23729, 23885, 24384, 28068, 28135, 35739, 37556, 38590, 40292, 41918, 42905, 43934, 44941, 47183, 49045, 53185, 59093, 59104, 62350, 64426, 64448, 12531]</t>
+  </si>
+  <si>
+    <t>[12531, 1, 53, 111, 135, 137, 500, 12791, 14632, 17050, 17190, 33148, 34971, 35102, 36283, 37556, 59744, 0]</t>
+  </si>
+  <si>
+    <t>[22]</t>
+  </si>
+  <si>
+    <t>[80, 5000, 6080, 8000, 8003, 8080, 8774, 9191, 9292, 9494, 9696, 35357, 49000]</t>
+  </si>
+  <si>
+    <t>[80, 3307, 5000, 6080, 8000, 8003, 8080, 8774, 9191, 9292, 9494, 9696, 35357, 49000]</t>
+  </si>
+  <si>
+    <t>[3306]</t>
   </si>
 </sst>
 </file>
@@ -959,7 +980,37 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="30.7109375" customWidth="1"/>
-    <col min="2" max="11" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="33.7109375" customWidth="1"/>
+    <col min="7" max="7" width="57.7109375" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" customWidth="1"/>
+    <col min="9" max="9" width="118.7109375" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1"/>
+    <col min="11" max="11" width="21.7109375" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" customWidth="1"/>
+    <col min="14" max="14" width="38.7109375" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" customWidth="1"/>
+    <col min="16" max="16" width="19.7109375" customWidth="1"/>
+    <col min="17" max="17" width="19.7109375" customWidth="1"/>
+    <col min="18" max="18" width="12.7109375" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" customWidth="1"/>
+    <col min="20" max="20" width="173.7109375" customWidth="1"/>
+    <col min="21" max="21" width="31.7109375" customWidth="1"/>
+    <col min="22" max="22" width="251.7109375" customWidth="1"/>
+    <col min="23" max="23" width="115.7109375" customWidth="1"/>
+    <col min="24" max="24" width="12.7109375" customWidth="1"/>
+    <col min="25" max="25" width="86.7109375" customWidth="1"/>
+    <col min="26" max="26" width="30.7109375" customWidth="1"/>
+    <col min="27" max="27" width="19.7109375" customWidth="1"/>
+    <col min="28" max="28" width="92.7109375" customWidth="1"/>
+    <col min="29" max="29" width="13.7109375" customWidth="1"/>
+    <col min="30" max="30" width="30.7109375" customWidth="1"/>
+    <col min="31" max="31" width="14.7109375" customWidth="1"/>
+    <col min="32" max="32" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32">
@@ -1126,7 +1177,7 @@
         <v>59</v>
       </c>
       <c r="J10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:32">
@@ -1134,7 +1185,7 @@
         <v>74</v>
       </c>
       <c r="K11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:32">
@@ -1142,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:32">
@@ -1150,7 +1201,7 @@
         <v>4</v>
       </c>
       <c r="M13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:32">
@@ -1158,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:32">
@@ -1166,7 +1217,7 @@
         <v>17</v>
       </c>
       <c r="O15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:32">
@@ -1174,7 +1225,7 @@
         <v>77</v>
       </c>
       <c r="P16" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:32">
@@ -1190,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:32">
@@ -1198,7 +1249,7 @@
         <v>35</v>
       </c>
       <c r="S19" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:32">
@@ -1206,7 +1257,7 @@
         <v>7</v>
       </c>
       <c r="T20" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:32">
@@ -1214,7 +1265,7 @@
         <v>63</v>
       </c>
       <c r="U21" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:32">
@@ -1222,7 +1273,7 @@
         <v>7</v>
       </c>
       <c r="V22" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:32">
@@ -1230,7 +1281,7 @@
         <v>7</v>
       </c>
       <c r="W23" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:32">
@@ -1238,7 +1289,7 @@
         <v>61</v>
       </c>
       <c r="X24" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:32">
@@ -1246,7 +1297,7 @@
         <v>81</v>
       </c>
       <c r="Y25" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:32">
@@ -1270,7 +1321,7 @@
         <v>70</v>
       </c>
       <c r="AB28" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:32">
@@ -1294,7 +1345,7 @@
         <v>35</v>
       </c>
       <c r="AE31" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:32">
